--- a/biology/Zoologie/Glycymeris/Glycymeris.xlsx
+++ b/biology/Zoologie/Glycymeris/Glycymeris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Glycymeris est un genre de mollusques bivalves de la famille des Glycymerididae dont les espèces sont connues sous le nom vernaculaire d'« amandes »[1]. C'est un taxodonte apparu durant le Crétacé.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glycymeris est un genre de mollusques bivalves de la famille des Glycymerididae dont les espèces sont connues sous le nom vernaculaire d'« amandes ». C'est un taxodonte apparu durant le Crétacé.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Liste partielle d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>G. americana (Defrance, 1829)
 G. corteziana (Dall, 1916)
 G. decussata (Linnaeus, 1758)
 G. glycymeris (Linnaeus, 1758) ou Amande de mer
 G. keenae (Willett, 1944)
-G. nummaria  (Linnaeus, 1758)[2]
+G. nummaria  (Linnaeus, 1758)
 G. pectinata (Gmelin, 1791)
 G. septentrionalis (Middendorff, 1849)
 G. spectralis (Nicol, 1952)
